--- a/UPLOAD_SHARING/XLSX/CHARACTER_SELECTOR.xlsx
+++ b/UPLOAD_SHARING/XLSX/CHARACTER_SELECTOR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_DEV\deviantart-bot-uploader\PENTAHO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_DEV\ToonGenAI\UPLOAD_SHARING\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830BF31F-F1CD-42F8-951A-70B24BB6BC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B069D4-D558-4EBC-B2BD-E799590A5385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20544" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{1C5EDDC4-57BF-4D50-ADF1-E9B82E0E7568}"/>
+    <workbookView xWindow="816" yWindow="4176" windowWidth="30960" windowHeight="12168" xr2:uid="{1C5EDDC4-57BF-4D50-ADF1-E9B82E0E7568}"/>
   </bookViews>
   <sheets>
     <sheet name="characters" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="173">
   <si>
     <t>SOURCE</t>
   </si>
@@ -555,6 +555,9 @@
   </si>
   <si>
     <t>Mihoshi</t>
+  </si>
+  <si>
+    <t>0E439D24-178B-8573-B036-979996F7B6F6</t>
   </si>
 </sst>
 </file>
@@ -938,7 +941,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1687,6 +1690,9 @@
       <c r="C51" t="s">
         <v>153</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="E51">
         <v>1</v>
       </c>

--- a/UPLOAD_SHARING/XLSX/CHARACTER_SELECTOR.xlsx
+++ b/UPLOAD_SHARING/XLSX/CHARACTER_SELECTOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_DEV\ToonGenAI\UPLOAD_SHARING\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B069D4-D558-4EBC-B2BD-E799590A5385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76332B0-EF92-4843-A118-FA5A65D9D6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="816" yWindow="4176" windowWidth="30960" windowHeight="12168" xr2:uid="{1C5EDDC4-57BF-4D50-ADF1-E9B82E0E7568}"/>
+    <workbookView xWindow="20544" yWindow="0" windowWidth="20832" windowHeight="16656" xr2:uid="{1C5EDDC4-57BF-4D50-ADF1-E9B82E0E7568}"/>
   </bookViews>
   <sheets>
     <sheet name="characters" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="177">
   <si>
     <t>SOURCE</t>
   </si>
@@ -554,10 +554,22 @@
     <t>Wanda</t>
   </si>
   <si>
-    <t>Mihoshi</t>
-  </si>
-  <si>
     <t>0E439D24-178B-8573-B036-979996F7B6F6</t>
+  </si>
+  <si>
+    <t>Ryoko</t>
+  </si>
+  <si>
+    <t>C9260982-E1F1-69C8-F622-D40E5062F6FA</t>
+  </si>
+  <si>
+    <t>GUY DOUBLE TARGET</t>
+  </si>
+  <si>
+    <t>Cara</t>
+  </si>
+  <si>
+    <t>GuyDoubleTarget</t>
   </si>
 </sst>
 </file>
@@ -937,11 +949,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3503EC0B-37BC-47FB-8FAE-DF0FFAAB21D8}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,16 +1697,16 @@
         <v>152</v>
       </c>
       <c r="B51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
         <v>153</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1765,6 +1777,23 @@
       </c>
       <c r="E56">
         <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
